--- a/ParametricGraph/test1.xlsx
+++ b/ParametricGraph/test1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Прибор 1</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Оптимальное решение</t>
+  </si>
+  <si>
+    <t>Максимизация</t>
   </si>
 </sst>
 </file>
@@ -431,7 +434,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -455,6 +458,9 @@
       <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
       <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
@@ -481,6 +487,9 @@
       <c r="B2">
         <f>7*5*10*20*3*11*9*10*11*11*2*1*2</f>
         <v>10062360000</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="J2">
         <v>7</v>
